--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,10 +496,8 @@
           <t>CSE</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C3" t="n">
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -509,6 +507,110 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>mark</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mangu</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Vedanth</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>testpassword</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jane Doe</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>JaneDoe</t>
         </is>
       </c>
     </row>
